--- a/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout.xlsx
+++ b/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/jabj_mmmi_sdu_dk/Documents/PhD_Project_Jakob/Twin4build/python/BuildingEnergyModel/BuildingEnergyModel/twin4build/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{AAA6B40C-6A0C-4905-8430-5C49F148860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CAB97BF-9AAE-4978-B7A8-1DD0AEF55F3B}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{AAA6B40C-6A0C-4905-8430-5C49F148860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABD1A774-3E7F-47AC-A2AB-1CACF89B38D5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="11" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="Sensor" sheetId="13" r:id="rId10"/>
     <sheet name="Meter" sheetId="14" r:id="rId11"/>
     <sheet name="Property" sheetId="15" r:id="rId12"/>
-    <sheet name="Controller_options" sheetId="12" state="hidden" r:id="rId13"/>
+    <sheet name="named_ranges" sheetId="16" r:id="rId13"/>
+    <sheet name="Controller_options" sheetId="12" state="hidden" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="controller_options">Controller_options!$A$1:$A$3</definedName>
@@ -35,16 +36,16 @@
     <definedName name="damper_names">OFFSET(Damper!$A$2, 0, 0, COUNTA(Damper!$A:$A), 1)</definedName>
     <definedName name="heating_coil_names">OFFSET(Coil!$A$2, 0, 0, COUNTA(Coil!$A:$A), 1)</definedName>
     <definedName name="heating_system_names">OFFSET(Systems!$B$2, 0, 0, COUNTA(Systems!$B:$B), 1)</definedName>
+    <definedName name="property_class">named_ranges!$A$2:$A$1048576</definedName>
+    <definedName name="property_instance">Property!$A$2:$A$1048576</definedName>
     <definedName name="sheet_dampers">Damper!$1:$1048576</definedName>
     <definedName name="sheet_space_heaters">SpaceHeater!$1:$1048576</definedName>
     <definedName name="sheet_spaces">BuildingSpace!$1:$1048576</definedName>
     <definedName name="sheet_systems">Systems!$1:$1048576</definedName>
     <definedName name="space_heater_names">OFFSET(SpaceHeater!#REF!, 0, 0, COUNTA(SpaceHeater!$A:$A), 1)</definedName>
-    <definedName name="space_names">OFFSET(BuildingSpace!#REF!, 0, 0, COUNTA(BuildingSpace!$A:$A)-1, 1)</definedName>
-    <definedName name="test">BuildingSpace!$A$2:$A$22</definedName>
+    <definedName name="space_names">BuildingSpace!$A$2:$A$1048576</definedName>
     <definedName name="valve_names">Valve!$A$2:$A$1048576</definedName>
     <definedName name="ventilation_system_names">Systems!$A$2:$A$1048576</definedName>
-    <definedName name="wb">sheet_systems,sheet_space_heaters,sheet_dampers,sheet_spaces</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t>Ventilation system name</t>
   </si>
@@ -337,13 +338,7 @@
     <t>CO2 controller</t>
   </si>
   <si>
-    <t>Co2</t>
-  </si>
-  <si>
     <t>Ø20-601b-2-FTR1</t>
-  </si>
-  <si>
-    <t>Ø20-601b-2</t>
   </si>
   <si>
     <t>Ø20-601b-2-FCR1</t>
@@ -370,7 +365,58 @@
     <t>Ø20-601b-2_temperature</t>
   </si>
   <si>
-    <t>Ø20-601b-2_valveposition</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2_CO2</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2_radiator_valve_position</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2_damper_position</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2_shading_position</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2_radiator_heat</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2-Heat</t>
+  </si>
+  <si>
+    <t>Motion</t>
+  </si>
+  <si>
+    <t>DirectNormalIrradiation</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Occupancy</t>
+  </si>
+  <si>
+    <t>property_class</t>
   </si>
 </sst>
 </file>
@@ -504,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -514,8 +560,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,14 +932,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -907,72 +955,78 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1048576" xr:uid="{49A92762-1E76-417B-B3BC-DF8DE820E9C7}">
-      <formula1>"Temperature, Co2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{ACB5937A-B11F-4C6D-B6CB-C4D6AE07231E}">
-      <formula1>"Temperature,Smoke,Price,Pressure,Power,Occupancy,Motion,Light,Humidity,Energy,DirectNormalIrradiation,CO2Concentation,OpeningPosition"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B6" xr:uid="{4CF092B5-24FE-4F50-99FF-6FB73374B141}">
-      <formula1>space_names</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{A9040C0C-604B-456F-96D4-0A20D2AB5CEB}">
+      <formula1>property_instance</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F706E24D-049C-4041-8421-EBDA59F16AF1}">
+          <x14:formula1>
+            <xm:f>BuildingSpace!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -981,14 +1035,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1004,66 +1058,34 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
+      <c r="A4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
+      <c r="A5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
+      <c r="A6" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{4D2CE81C-F17E-40ED-87D6-FB4753E3DF23}">
-      <formula1>"Temperature,Smoke,Price,Pressure,Power,Occupancy,Motion,Light,Humidity,Energy,DirectNormalIrradiation,CO2Concentation,OpeningPosition"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{2328B123-682F-4B3C-AE64-CDC150D0618A}">
+      <formula1>space_names</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B6" xr:uid="{2328B123-682F-4B3C-AE64-CDC150D0618A}">
-      <formula1>space_names</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{7DBA9B00-BCC4-452A-A0D4-50083D3659C1}">
+      <formula1>property_instance</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1072,58 +1094,207 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDB24A9-A7F1-4854-93D9-EBD1381307DD}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>92</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{AAC34BEA-A665-4921-AD47-68EC72295E2E}">
+      <formula1>property_class</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{8EAAEBCE-5EC3-4E09-8BA7-3D1DFAD34E17}">
+      <formula1>space_names</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D902D15-6209-46B5-9072-5070732D9943}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BFE67A-27F6-4BA1-B495-054A8677A66E}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1159,7 +1330,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1376,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6329,7 +6500,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B13:B1048576 B2:B11" xr:uid="{822F429E-761E-40DF-83F8-557B76A92FBC}">
       <formula1>ventilation_system_names</formula1>
     </dataValidation>
@@ -6338,6 +6509,9 @@
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{7DBB895F-2CCB-452C-9910-D200E5C7135E}">
       <formula1>"supply,exhaust"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{89B57641-DFAD-4729-8A4B-61C914339752}">
+      <formula1>space_names</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12387,7 +12561,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33861,7 +34035,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39922,8 +40096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEF019-D7A4-42FF-B5C0-3702855A99F7}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39931,7 +40105,7 @@
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -39962,7 +40136,7 @@
         <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -39976,7 +40150,7 @@
         <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -59587,8 +59761,8 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1001:D1048576" xr:uid="{2AABD580-E88D-4287-8639-26BD855AF04E}">
       <formula1>"Temperature,CO2"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D1000" xr:uid="{3105E504-4F02-4BFF-804E-D246194C9AC0}">
-      <formula1>"Temperature,Co2"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1000" xr:uid="{3105E504-4F02-4BFF-804E-D246194C9AC0}">
+      <formula1>property_instance</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout.xlsx
+++ b/twin4build/test/data/configuration_template_1space_1v_1h_0c_test_new_layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/jabj_mmmi_sdu_dk/Documents/PhD_Project_Jakob/Twin4build/python/BuildingEnergyModel/BuildingEnergyModel/twin4build/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{AAA6B40C-6A0C-4905-8430-5C49F148860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABD1A774-3E7F-47AC-A2AB-1CACF89B38D5}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{AAA6B40C-6A0C-4905-8430-5C49F148860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B643076-88F8-4D8F-B74A-10423FAD5566}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="21240" activeTab="9" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="3" r:id="rId1"/>
@@ -22,11 +22,12 @@
     <sheet name="AirToAirHeatRecovery" sheetId="8" r:id="rId7"/>
     <sheet name="Fan" sheetId="9" r:id="rId8"/>
     <sheet name="Controller" sheetId="11" r:id="rId9"/>
-    <sheet name="Sensor" sheetId="13" r:id="rId10"/>
-    <sheet name="Meter" sheetId="14" r:id="rId11"/>
-    <sheet name="Property" sheetId="15" r:id="rId12"/>
-    <sheet name="named_ranges" sheetId="16" r:id="rId13"/>
-    <sheet name="Controller_options" sheetId="12" state="hidden" r:id="rId14"/>
+    <sheet name="ShadingDevice" sheetId="17" r:id="rId10"/>
+    <sheet name="Sensor" sheetId="13" r:id="rId11"/>
+    <sheet name="Meter" sheetId="14" r:id="rId12"/>
+    <sheet name="Property" sheetId="15" r:id="rId13"/>
+    <sheet name="named_ranges" sheetId="16" r:id="rId14"/>
+    <sheet name="Controller_options" sheetId="12" state="hidden" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="controller_options">Controller_options!$A$1:$A$3</definedName>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="121">
   <si>
     <t>Ventilation system name</t>
   </si>
@@ -311,9 +312,6 @@
     <t>Exhaust damper</t>
   </si>
   <si>
-    <t>Space</t>
-  </si>
-  <si>
     <t>Space heater</t>
   </si>
   <si>
@@ -344,9 +342,6 @@
     <t>Ø20-601b-2-FCR1</t>
   </si>
   <si>
-    <t>CO2Concentation</t>
-  </si>
-  <si>
     <t>Ø20-601b-2-MVV1</t>
   </si>
   <si>
@@ -357,9 +352,6 @@
   </si>
   <si>
     <t>Ø20-601b-2-SOL1</t>
-  </si>
-  <si>
-    <t>isPropertyOf</t>
   </si>
   <si>
     <t>Ø20-601b-2_temperature</t>
@@ -418,6 +410,51 @@
   <si>
     <t>property_class</t>
   </si>
+  <si>
+    <t>connectedTo</t>
+  </si>
+  <si>
+    <t>hasProperty</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2_temperature;Ø20-601b-2_CO2</t>
+  </si>
+  <si>
+    <t>Ø20-601b-2</t>
+  </si>
+  <si>
+    <t>CO2Concentration</t>
+  </si>
+  <si>
+    <t>isExternal</t>
+  </si>
+  <si>
+    <t>mechanicalOperated</t>
+  </si>
+  <si>
+    <t>roughness</t>
+  </si>
+  <si>
+    <t>shadingDeviceType</t>
+  </si>
+  <si>
+    <t>solarReflectance</t>
+  </si>
+  <si>
+    <t>solarTransmittance</t>
+  </si>
+  <si>
+    <t>thermalTransmittance</t>
+  </si>
+  <si>
+    <t>visibleLightReflectance</t>
+  </si>
+  <si>
+    <t>visibleLightTransmittance</t>
+  </si>
+  <si>
+    <t>Shade</t>
+  </si>
 </sst>
 </file>
 
@@ -454,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +507,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -564,6 +613,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,10 +632,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -887,7 +934,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,11 +975,97 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C1460C-954B-4409-8D58-1A178EAA6542}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{7DADFA83-74AA-4634-9136-2FE61988FE27}">
+      <formula1>count_name_occurences(C2)&lt;=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D904F809-0565-4493-A542-77B590BDC86C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,57 +1088,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1030,12 +1163,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E1EFB1-EA7C-414E-94A7-98027577BDF8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,13 +1191,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,12 +1225,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDB24A9-A7F1-4854-93D9-EBD1381307DD}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,87 +1240,66 @@
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>96</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{AAC34BEA-A665-4921-AD47-68EC72295E2E}">
       <formula1>property_class</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{8EAAEBCE-5EC3-4E09-8BA7-3D1DFAD34E17}">
-      <formula1>space_names</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1195,12 +1307,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D902D15-6209-46B5-9072-5070732D9943}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1322,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1230,62 +1342,62 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BFE67A-27F6-4BA1-B495-054A8677A66E}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1327,42 +1439,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88391AB-9A45-440E-B7CA-6D31485712DF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2">
+        <v>109</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2">
         <v>466.54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="B10 B54 B18:B19 B51 B14" xr:uid="{ACBC5361-640C-4BD8-BD59-5A9DDF1C4769}">
-      <formula1>count_name_occurences(B10)&lt;=1</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="C10 C54 C18:C19 C51 C14" xr:uid="{ACBC5361-640C-4BD8-BD59-5A9DDF1C4769}">
+      <formula1>count_name_occurences(C10)&lt;=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9 A10 A2:A8 A12:A1048576" xr:uid="{DED46077-9915-4A1A-B8F1-BF324FF70A27}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 A10:B10 A12:B1048576 A2:A8 B3:B8" xr:uid="{DED46077-9915-4A1A-B8F1-BF324FF70A27}">
       <formula1>count_name_occurences(A2)&lt;=1</formula1>
     </dataValidation>
   </dataValidations>
@@ -1373,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A747EB8B-49DD-40FE-8CAD-B5A7A33DF8B7}">
-  <dimension ref="A1:X1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,25 +1503,27 @@
     <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
@@ -1412,71 +1533,77 @@
       <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -1484,17 +1611,20 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
         <v>65</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <f>4800/3600*1.225</f>
         <v>1.6333333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -1502,19 +1632,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
         <v>66</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3" si="0">4800/3600*1.225</f>
+      <c r="R3">
+        <f t="shared" ref="R3" si="0">4800/3600*1.225</f>
         <v>1.6333333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="str">
-        <f t="shared" ref="A170:A194" si="1">IF(AND(C170&lt;&gt;"",D170&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D170),"_"),C170),"")</f>
+        <f t="shared" ref="A170:A194" si="1">IF(AND(C170&lt;&gt;"",F170&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F170),"_"),C170),"")</f>
         <v/>
       </c>
     </row>
@@ -1664,7 +1797,7 @@
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="str">
-        <f t="shared" ref="A195:A258" si="2">IF(AND(C195&lt;&gt;"",D195&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D195),"_"),C195),"")</f>
+        <f t="shared" ref="A195:A258" si="2">IF(AND(C195&lt;&gt;"",F195&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F195),"_"),C195),"")</f>
         <v/>
       </c>
     </row>
@@ -2048,7 +2181,7 @@
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="str">
-        <f t="shared" ref="A259:A322" si="3">IF(AND(C259&lt;&gt;"",D259&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D259),"_"),C259),"")</f>
+        <f t="shared" ref="A259:A322" si="3">IF(AND(C259&lt;&gt;"",F259&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F259),"_"),C259),"")</f>
         <v/>
       </c>
     </row>
@@ -2432,7 +2565,7 @@
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="str">
-        <f t="shared" ref="A323:A386" si="4">IF(AND(C323&lt;&gt;"",D323&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D323),"_"),C323),"")</f>
+        <f t="shared" ref="A323:A386" si="4">IF(AND(C323&lt;&gt;"",F323&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F323),"_"),C323),"")</f>
         <v/>
       </c>
     </row>
@@ -2816,7 +2949,7 @@
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="str">
-        <f t="shared" ref="A387:A450" si="5">IF(AND(C387&lt;&gt;"",D387&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D387),"_"),C387),"")</f>
+        <f t="shared" ref="A387:A450" si="5">IF(AND(C387&lt;&gt;"",F387&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F387),"_"),C387),"")</f>
         <v/>
       </c>
     </row>
@@ -3200,7 +3333,7 @@
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="str">
-        <f t="shared" ref="A451:A514" si="6">IF(AND(C451&lt;&gt;"",D451&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D451),"_"),C451),"")</f>
+        <f t="shared" ref="A451:A514" si="6">IF(AND(C451&lt;&gt;"",F451&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F451),"_"),C451),"")</f>
         <v/>
       </c>
     </row>
@@ -3584,7 +3717,7 @@
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="str">
-        <f t="shared" ref="A515:A578" si="7">IF(AND(C515&lt;&gt;"",D515&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D515),"_"),C515),"")</f>
+        <f t="shared" ref="A515:A578" si="7">IF(AND(C515&lt;&gt;"",F515&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F515),"_"),C515),"")</f>
         <v/>
       </c>
     </row>
@@ -3968,7 +4101,7 @@
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="str">
-        <f t="shared" ref="A579:A642" si="8">IF(AND(C579&lt;&gt;"",D579&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D579),"_"),C579),"")</f>
+        <f t="shared" ref="A579:A642" si="8">IF(AND(C579&lt;&gt;"",F579&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F579),"_"),C579),"")</f>
         <v/>
       </c>
     </row>
@@ -4352,7 +4485,7 @@
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="str">
-        <f t="shared" ref="A643:A706" si="9">IF(AND(C643&lt;&gt;"",D643&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D643),"_"),C643),"")</f>
+        <f t="shared" ref="A643:A706" si="9">IF(AND(C643&lt;&gt;"",F643&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F643),"_"),C643),"")</f>
         <v/>
       </c>
     </row>
@@ -4736,7 +4869,7 @@
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="str">
-        <f t="shared" ref="A707:A770" si="10">IF(AND(C707&lt;&gt;"",D707&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D707),"_"),C707),"")</f>
+        <f t="shared" ref="A707:A770" si="10">IF(AND(C707&lt;&gt;"",F707&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F707),"_"),C707),"")</f>
         <v/>
       </c>
     </row>
@@ -5120,7 +5253,7 @@
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="str">
-        <f t="shared" ref="A771:A834" si="11">IF(AND(C771&lt;&gt;"",D771&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D771),"_"),C771),"")</f>
+        <f t="shared" ref="A771:A834" si="11">IF(AND(C771&lt;&gt;"",F771&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F771),"_"),C771),"")</f>
         <v/>
       </c>
     </row>
@@ -5504,7 +5637,7 @@
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="str">
-        <f t="shared" ref="A835:A898" si="12">IF(AND(C835&lt;&gt;"",D835&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D835),"_"),C835),"")</f>
+        <f t="shared" ref="A835:A898" si="12">IF(AND(C835&lt;&gt;"",F835&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F835),"_"),C835),"")</f>
         <v/>
       </c>
     </row>
@@ -5888,7 +6021,7 @@
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="str">
-        <f t="shared" ref="A899:A962" si="13">IF(AND(C899&lt;&gt;"",D899&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D899),"_"),C899),"")</f>
+        <f t="shared" ref="A899:A962" si="13">IF(AND(C899&lt;&gt;"",F899&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F899),"_"),C899),"")</f>
         <v/>
       </c>
     </row>
@@ -6272,7 +6405,7 @@
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="str">
-        <f t="shared" ref="A963:A1000" si="14">IF(AND(C963&lt;&gt;"",D963&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",D963),"_"),C963),"")</f>
+        <f t="shared" ref="A963:A1000" si="14">IF(AND(C963&lt;&gt;"",F963&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("D_",F963),"_"),C963),"")</f>
         <v/>
       </c>
     </row>
@@ -6504,10 +6637,10 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B13:B1048576 B2:B11" xr:uid="{822F429E-761E-40DF-83F8-557B76A92FBC}">
       <formula1>ventilation_system_names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q11:Q13" xr:uid="{BB45A9A0-8EB5-4032-90F2-CDDD4809E054}">
-      <formula1>$N$11:$N$14</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S11:S13" xr:uid="{BB45A9A0-8EB5-4032-90F2-CDDD4809E054}">
+      <formula1>$P$11:$P$14</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{7DBB895F-2CCB-452C-9910-D200E5C7135E}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{7DBB895F-2CCB-452C-9910-D200E5C7135E}">
       <formula1>"supply,exhaust"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{89B57641-DFAD-4729-8A4B-61C914339752}">
@@ -6521,31 +6654,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F9D35B-B713-4EC3-BA55-A4EE8F2F331C}">
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
@@ -6555,87 +6689,99 @@
       <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2">
         <f>3*515+2*572</f>
         <v>2689</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <f>125000</f>
         <v>125000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" ref="A12:A66" si="0">IF(C12&lt;&gt;"",_xlfn.CONCAT("SH_",C12),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12547,9 +12693,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B48:B1048576 B2:B46" xr:uid="{CDBF1DD2-FE2B-4960-AE5E-D5DDA44A6748}">
       <formula1>heating_system_names</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{A1AF1509-DD86-4708-A16C-CE99B4DB6F9D}">
+      <formula1>space_names</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12558,10 +12707,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070312A3-2F1C-41E0-AB34-E38166B9C92A}">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12569,16 +12718,18 @@
     <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
@@ -12588,50 +12739,62 @@
       <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
         <v>73</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2">
         <f>5*0.468</f>
         <v>2.3400000000000003</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:A11" si="0">IF(C3&lt;&gt;"",SUBSTITUTE(C3,"SH","V"),"")</f>
         <v/>
@@ -12641,7 +12804,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12651,7 +12814,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12661,7 +12824,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12671,7 +12834,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12681,7 +12844,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12691,7 +12854,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12701,7 +12864,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12711,7 +12874,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -21952,10 +22115,14 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{5F303923-A133-43EE-BF6A-9A627B0041CB}"/>
+  <dataValidations count="2">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D3:E1048576 C1001:C1048576" xr:uid="{5F303923-A133-43EE-BF6A-9A627B0041CB}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1000" xr:uid="{619C179E-8A78-48AD-AB79-85B7AC4D1CCA}">
+      <formula1>space_names</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21964,7 +22131,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21987,7 +22154,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>63</v>
@@ -27983,7 +28150,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28034,7 +28201,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -34098,7 +34265,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -34116,7 +34283,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -40096,8 +40263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEF019-D7A4-42FF-B5C0-3702855A99F7}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40127,30 +40294,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -59757,13 +59924,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1001:D1048576" xr:uid="{2AABD580-E88D-4287-8639-26BD855AF04E}">
       <formula1>"Temperature,CO2"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1000" xr:uid="{3105E504-4F02-4BFF-804E-D246194C9AC0}">
       <formula1>property_instance</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{C812587E-27BA-46FC-8623-33743BAC36D5}">
+      <formula1>space_names</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
